--- a/Elijah/Elijah Music Cues.xlsx
+++ b/Elijah/Elijah Music Cues.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joann\Desktop\spring2017\art175\SJSU_DATAVIZ_17\Elijah\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="273">
   <si>
     <t>Page/System/Measure (Final number in series indicates the entire measure)</t>
   </si>
@@ -827,24 +835,34 @@
   </si>
   <si>
     <t>Big Animation - Liely</t>
+  </si>
+  <si>
+    <t>team shrekbees are working here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="20">
@@ -852,7 +870,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -969,141 +987,401 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.57"/>
-    <col customWidth="1" min="2" max="3" width="32.29"/>
-    <col customWidth="1" min="4" max="4" width="23.43"/>
-    <col customWidth="1" min="5" max="5" width="54.57"/>
-    <col customWidth="1" min="6" max="6" width="21.29"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="54.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,12 +1396,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1139,12 +1417,12 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
@@ -1159,12 +1437,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1175,7 +1453,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1189,7 +1467,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1478,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1211,7 +1489,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1502,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1235,12 +1513,12 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>30</v>
@@ -1255,12 +1533,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
@@ -1271,12 +1549,12 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
@@ -1287,12 +1565,12 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
@@ -1303,12 +1581,12 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
@@ -1319,12 +1597,12 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>47</v>
@@ -1339,12 +1617,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>51</v>
@@ -1357,12 +1635,12 @@
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>54</v>
@@ -1375,12 +1653,12 @@
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>57</v>
@@ -1393,12 +1671,12 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="3" t="s">
@@ -1409,12 +1687,12 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>64</v>
@@ -1428,25 +1706,28 @@
       <c r="F20" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="G20" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="3" t="s">
@@ -1456,12 +1737,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
@@ -1471,12 +1752,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>76</v>
@@ -1488,12 +1769,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>79</v>
@@ -1505,12 +1786,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>82</v>
@@ -1522,12 +1803,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15" t="s">
@@ -1537,12 +1818,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
@@ -1552,12 +1833,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="3" t="s">
@@ -1567,12 +1848,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="3" t="s">
@@ -1582,7 +1863,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>96</v>
       </c>
@@ -1602,12 +1883,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B32" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>101</v>
@@ -1622,12 +1903,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>104</v>
@@ -1642,12 +1923,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
@@ -1660,12 +1941,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>112</v>
@@ -1678,7 +1959,7 @@
       </c>
       <c r="F35" s="22"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>115</v>
       </c>
@@ -1686,12 +1967,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>117</v>
@@ -1706,12 +1987,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B38" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>121</v>
@@ -1724,12 +2005,12 @@
       </c>
       <c r="F38" s="23"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B39" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>125</v>
@@ -1744,12 +2025,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B40" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24" t="s">
@@ -1760,12 +2041,12 @@
       </c>
       <c r="F40" s="25"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B41" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24" t="s">
@@ -1776,12 +2057,12 @@
       </c>
       <c r="F41" s="25"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>136</v>
@@ -1790,13 +2071,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="27"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>138</v>
       </c>
@@ -1808,7 +2089,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>140</v>
       </c>
@@ -1820,7 +2101,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>143</v>
       </c>
@@ -1832,7 +2113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>146</v>
       </c>
@@ -1844,7 +2125,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>149</v>
       </c>
@@ -1856,7 +2137,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>152</v>
       </c>
@@ -1868,7 +2149,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>155</v>
       </c>
@@ -1880,16 +2161,16 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="26"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B52" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>159</v>
@@ -1904,12 +2185,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28" t="s">
@@ -1920,12 +2201,12 @@
       </c>
       <c r="F53" s="29"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B54" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28" t="s">
@@ -1936,12 +2217,12 @@
       </c>
       <c r="F54" s="29"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="28" t="s">
@@ -1952,12 +2233,12 @@
       </c>
       <c r="F55" s="29"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B56" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>172</v>
@@ -1972,7 +2253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="30"/>
       <c r="D57" s="14" t="s">
         <v>174</v>
@@ -1980,12 +2261,12 @@
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B58" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14" t="s">
@@ -1998,12 +2279,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B59" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>179</v>
@@ -2016,12 +2297,12 @@
       </c>
       <c r="F59" s="31"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B60" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>183</v>
@@ -2036,12 +2317,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B61" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C61" s="32" t="s">
         <v>187</v>
@@ -2054,12 +2335,12 @@
       </c>
       <c r="F61" s="33"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B62" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>190</v>
@@ -2074,12 +2355,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C63" s="34"/>
       <c r="D63" s="34" t="s">
@@ -2090,12 +2371,12 @@
       </c>
       <c r="F63" s="35"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B64" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C64" s="34"/>
       <c r="D64" s="34" t="s">
@@ -2106,12 +2387,12 @@
       </c>
       <c r="F64" s="35"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B65" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>201</v>
@@ -2126,12 +2407,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B66" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11" t="s">
@@ -2142,12 +2423,12 @@
       </c>
       <c r="F66" s="13"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B67" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>207</v>
@@ -2162,12 +2443,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B68" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>212</v>
@@ -2180,12 +2461,12 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B69" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18" t="s">
@@ -2196,12 +2477,12 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B70" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18" t="s">
@@ -2212,12 +2493,12 @@
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B71" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>222</v>
@@ -2232,12 +2513,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B72" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>227</v>
@@ -2250,12 +2531,12 @@
       </c>
       <c r="F72" s="36"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B73" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>231</v>
@@ -2270,12 +2551,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B74" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11" t="s">
@@ -2286,21 +2567,21 @@
       </c>
       <c r="F74" s="13"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B76" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C76" s="38" t="s">
         <v>238</v>
@@ -2315,21 +2596,21 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B78" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>243</v>
@@ -2344,12 +2625,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B79" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>246</v>
@@ -2364,12 +2645,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B80" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>251</v>
@@ -2380,7 +2661,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>18</v>
       </c>
@@ -2389,7 +2670,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>253</v>
       </c>
@@ -2402,7 +2683,7 @@
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>256</v>
       </c>
@@ -2415,7 +2696,7 @@
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>259</v>
       </c>
@@ -2428,12 +2709,12 @@
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B85" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>263</v>
@@ -2448,21 +2729,21 @@
         <v>266</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B87" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C87" s="41" t="s">
         <v>268</v>
@@ -2478,6 +2759,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Elijah/Elijah Music Cues.xlsx
+++ b/Elijah/Elijah Music Cues.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/SJSU_DATAVIZ_17/Elijah/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="680" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="273">
   <si>
     <t>Page/System/Measure (Final number in series indicates the entire measure)</t>
   </si>
@@ -827,24 +843,34 @@
   </si>
   <si>
     <t>Big Animation - Liely</t>
+  </si>
+  <si>
+    <t>Eduardo &amp; Chelsa  +group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="20">
@@ -852,7 +878,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -969,141 +995,364 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.57"/>
-    <col customWidth="1" min="2" max="3" width="32.29"/>
-    <col customWidth="1" min="4" max="4" width="23.43"/>
-    <col customWidth="1" min="5" max="5" width="54.57"/>
-    <col customWidth="1" min="6" max="6" width="21.29"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="54.5" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,12 +1367,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1139,12 +1388,12 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
@@ -1159,12 +1408,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1175,7 +1424,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1189,7 +1438,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1449,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1211,7 +1460,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1473,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1235,12 +1484,12 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>30</v>
@@ -1255,12 +1504,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
@@ -1271,12 +1520,12 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
@@ -1287,12 +1536,12 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
@@ -1303,12 +1552,12 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
@@ -1319,12 +1568,12 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>47</v>
@@ -1339,12 +1588,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>51</v>
@@ -1357,12 +1606,12 @@
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>54</v>
@@ -1375,12 +1624,12 @@
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>57</v>
@@ -1393,12 +1642,12 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="3" t="s">
@@ -1409,12 +1658,12 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>64</v>
@@ -1429,24 +1678,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="3" t="s">
@@ -1456,12 +1705,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
@@ -1471,12 +1720,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>76</v>
@@ -1488,12 +1737,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>79</v>
@@ -1505,12 +1754,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>82</v>
@@ -1522,12 +1771,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15" t="s">
@@ -1537,12 +1786,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
@@ -1552,12 +1801,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="3" t="s">
@@ -1567,12 +1816,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="3" t="s">
@@ -1582,7 +1831,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>96</v>
       </c>
@@ -1602,12 +1851,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B32" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>101</v>
@@ -1622,12 +1871,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>104</v>
@@ -1642,12 +1891,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
@@ -1660,12 +1909,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>112</v>
@@ -1678,7 +1927,7 @@
       </c>
       <c r="F35" s="22"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>115</v>
       </c>
@@ -1686,12 +1935,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>117</v>
@@ -1706,12 +1955,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B38" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>121</v>
@@ -1724,12 +1973,12 @@
       </c>
       <c r="F38" s="23"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B39" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>125</v>
@@ -1744,12 +1993,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B40" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24" t="s">
@@ -1760,12 +2009,12 @@
       </c>
       <c r="F40" s="25"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B41" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24" t="s">
@@ -1776,12 +2025,12 @@
       </c>
       <c r="F41" s="25"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>136</v>
@@ -1790,13 +2039,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="27"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>138</v>
       </c>
@@ -1808,7 +2057,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>140</v>
       </c>
@@ -1820,7 +2069,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>143</v>
       </c>
@@ -1832,7 +2081,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>146</v>
       </c>
@@ -1844,7 +2093,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>149</v>
       </c>
@@ -1856,7 +2105,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>152</v>
       </c>
@@ -1868,7 +2117,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>155</v>
       </c>
@@ -1880,16 +2129,16 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
       <c r="C51" s="26"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B52" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>159</v>
@@ -1904,12 +2153,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28" t="s">
@@ -1920,12 +2169,12 @@
       </c>
       <c r="F53" s="29"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B54" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28" t="s">
@@ -1936,12 +2185,12 @@
       </c>
       <c r="F54" s="29"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="28" t="s">
@@ -1952,12 +2201,12 @@
       </c>
       <c r="F55" s="29"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B56" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>172</v>
@@ -1972,7 +2221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C57" s="30"/>
       <c r="D57" s="14" t="s">
         <v>174</v>
@@ -1980,12 +2229,12 @@
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B58" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14" t="s">
@@ -1998,12 +2247,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B59" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>179</v>
@@ -2016,12 +2265,12 @@
       </c>
       <c r="F59" s="31"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B60" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>183</v>
@@ -2036,12 +2285,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B61" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C61" s="32" t="s">
         <v>187</v>
@@ -2054,12 +2303,12 @@
       </c>
       <c r="F61" s="33"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B62" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>190</v>
@@ -2074,12 +2323,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C63" s="34"/>
       <c r="D63" s="34" t="s">
@@ -2090,12 +2339,12 @@
       </c>
       <c r="F63" s="35"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B64" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C64" s="34"/>
       <c r="D64" s="34" t="s">
@@ -2106,12 +2355,12 @@
       </c>
       <c r="F64" s="35"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B65" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>201</v>
@@ -2126,12 +2375,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B66" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11" t="s">
@@ -2142,12 +2391,12 @@
       </c>
       <c r="F66" s="13"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B67" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>207</v>
@@ -2162,12 +2411,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B68" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>212</v>
@@ -2180,12 +2429,12 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B69" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18" t="s">
@@ -2196,12 +2445,12 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B70" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18" t="s">
@@ -2212,12 +2461,12 @@
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B71" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>222</v>
@@ -2232,12 +2481,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B72" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>227</v>
@@ -2250,12 +2499,12 @@
       </c>
       <c r="F72" s="36"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B73" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>231</v>
@@ -2270,12 +2519,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B74" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11" t="s">
@@ -2286,21 +2535,21 @@
       </c>
       <c r="F74" s="13"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B75" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B76" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C76" s="38" t="s">
         <v>238</v>
@@ -2314,22 +2563,25 @@
       <c r="F76" s="38" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="G76" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B77" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B78" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>243</v>
@@ -2344,12 +2596,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B79" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>246</v>
@@ -2364,12 +2616,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B80" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>251</v>
@@ -2380,7 +2632,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>18</v>
       </c>
@@ -2389,7 +2641,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
         <v>253</v>
       </c>
@@ -2402,7 +2654,7 @@
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
         <v>256</v>
       </c>
@@ -2415,7 +2667,7 @@
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
         <v>259</v>
       </c>
@@ -2428,12 +2680,12 @@
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B85" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>263</v>
@@ -2448,21 +2700,21 @@
         <v>266</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B86" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B87" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C87" s="41" t="s">
         <v>268</v>
@@ -2478,6 +2730,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>